--- a/総合テスト/4. 管理者機能/ST-A-010.xlsx
+++ b/総合テスト/4. 管理者機能/ST-A-010.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki.nishijima\Downloads\workspace\teamF\総合テスト\4. 管理者機能\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6D0692-28EB-4834-BF48-8AEC2B21E09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91693561-0D11-4EED-9412-53CC49EB9632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="810" windowWidth="14400" windowHeight="8170" xr2:uid="{ED0B6291-F6C6-48E5-9864-4ECC2ED1FBD2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{ED0B6291-F6C6-48E5-9864-4ECC2ED1FBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -143,25 +144,30 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>10356</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>10707</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31396722-C8AE-6DB0-9E83-7F599E564125}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31BFA65E-EF06-43A8-A003-88F669C94DC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -170,14 +176,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="660400" y="7543800"/>
+          <a:off x="0" y="0"/>
           <a:ext cx="5953956" cy="8468907"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -509,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055DDB0C-717E-4A52-90B2-ECAEE1F5D635}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -519,4 +525,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AE7159-B9F9-4308-93D5-4B9EDB602DD4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>